--- a/2019-BKM Rapor-Konsolide.xlsx
+++ b/2019-BKM Rapor-Konsolide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nilgun Aytekin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{624E26B2-B151-4AE2-849B-4A14E964E12B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF06238-17A0-408A-8CAA-DE58CD26476E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{88F2AB49-1B2D-4F23-B86D-D079470D6B5E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="39">
   <si>
     <t>Dönem</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>İşlem Tutarı (Banka Kartı)</t>
-  </si>
-  <si>
-    <t>MİLYON TL</t>
   </si>
   <si>
     <t>6-2019</t>
@@ -583,11 +580,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC415169-A77D-465F-BDAE-39BC456F6FD4}">
-  <dimension ref="A1:G163"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -601,7 +598,7 @@
     <col min="7" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,16 +617,13 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="6">
         <v>306426</v>
@@ -644,12 +638,12 @@
         <v>43.79</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6">
         <v>3335321</v>
@@ -664,12 +658,12 @@
         <v>190.61</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6">
         <v>32572382</v>
@@ -684,12 +678,12 @@
         <v>1195.27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6">
         <v>2060390</v>
@@ -704,12 +698,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="6">
         <v>31076151</v>
@@ -724,12 +718,12 @@
         <v>994.9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="6">
         <v>738068</v>
@@ -744,12 +738,12 @@
         <v>21.26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="6">
         <v>4653286</v>
@@ -764,12 +758,12 @@
         <v>251.25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="6">
         <v>7230732</v>
@@ -784,12 +778,12 @@
         <v>416.45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="6">
         <v>32253174</v>
@@ -804,12 +798,12 @@
         <v>2129.29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="6">
         <v>1792404</v>
@@ -824,12 +818,12 @@
         <v>738.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="6">
         <v>22032853</v>
@@ -844,12 +838,12 @@
         <v>713.24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="6">
         <v>2740192</v>
@@ -864,12 +858,12 @@
         <v>219.7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="6">
         <v>2345133</v>
@@ -884,12 +878,12 @@
         <v>544.99</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="6">
         <v>1180990</v>
@@ -904,12 +898,12 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="6">
         <v>57587</v>
@@ -926,10 +920,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="6">
         <v>1099748</v>
@@ -946,10 +940,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="6">
         <v>105519907</v>
@@ -966,10 +960,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="6">
         <v>4379615</v>
@@ -986,10 +980,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="6">
         <v>716433</v>
@@ -1006,10 +1000,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="6">
         <v>13975225</v>
@@ -1026,10 +1020,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="6">
         <v>7224598</v>
@@ -1046,10 +1040,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="6">
         <v>4513691</v>
@@ -1066,10 +1060,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="6">
         <v>17915719</v>
@@ -1086,10 +1080,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="6">
         <v>3786201</v>
@@ -1106,10 +1100,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="6">
         <v>45687937</v>
@@ -1126,10 +1120,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="6">
         <v>4984660</v>
@@ -1146,10 +1140,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="9">
         <v>354697106</v>
@@ -1166,10 +1160,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="6">
         <v>287713</v>
@@ -1186,10 +1180,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" s="6">
         <v>3638942</v>
@@ -1206,10 +1200,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" s="6">
         <v>28446684</v>
@@ -1226,10 +1220,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" s="6">
         <v>2202538</v>
@@ -1246,10 +1240,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" s="6">
         <v>33340331</v>
@@ -1266,10 +1260,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="6">
         <v>81154</v>
@@ -1286,10 +1280,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" s="6">
         <v>5232406</v>
@@ -1306,10 +1300,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" s="6">
         <v>8436712</v>
@@ -1326,10 +1320,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="6">
         <v>30658864</v>
@@ -1346,10 +1340,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="6">
         <v>1888924</v>
@@ -1366,10 +1360,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39" s="6">
         <v>24438102</v>
@@ -1386,10 +1380,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C40" s="6">
         <v>5201799</v>
@@ -1406,10 +1400,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C41" s="6">
         <v>1725986</v>
@@ -1426,10 +1420,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C42" s="6">
         <v>1380292</v>
@@ -1446,10 +1440,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C43" s="6">
         <v>374845</v>
@@ -1466,10 +1460,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44" s="6">
         <v>931168</v>
@@ -1486,10 +1480,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C45" s="6">
         <v>111028501</v>
@@ -1506,10 +1500,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C46" s="6">
         <v>4843676</v>
@@ -1526,10 +1520,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C47" s="6">
         <v>75456</v>
@@ -1546,10 +1540,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C48" s="6">
         <v>15836996</v>
@@ -1566,10 +1560,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C49" s="6">
         <v>7244527</v>
@@ -1586,10 +1580,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50" s="6">
         <v>5424234</v>
@@ -1606,10 +1600,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C51" s="6">
         <v>18959462</v>
@@ -1626,10 +1620,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C52" s="6">
         <v>4184292</v>
@@ -1646,10 +1640,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C53" s="6">
         <v>40558791</v>
@@ -1666,10 +1660,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C54" s="6">
         <v>5195944</v>
@@ -1686,10 +1680,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C55" s="9">
         <v>363027829</v>
@@ -1706,10 +1700,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" s="6">
         <v>294446</v>
@@ -1726,10 +1720,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C57" s="6">
         <v>3304886</v>
@@ -1746,10 +1740,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C58" s="6">
         <v>27802795</v>
@@ -1766,10 +1760,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C59" s="6">
         <v>2142251</v>
@@ -1786,10 +1780,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60" s="6">
         <v>30505105</v>
@@ -1806,10 +1800,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C61" s="6">
         <v>775332</v>
@@ -1826,10 +1820,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C62" s="6">
         <v>5613547</v>
@@ -1846,10 +1840,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C63" s="6">
         <v>7720631</v>
@@ -1866,10 +1860,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C64" s="6">
         <v>25402367</v>
@@ -1886,10 +1880,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C65" s="6">
         <v>1790747</v>
@@ -1906,10 +1900,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C66" s="6">
         <v>23740787</v>
@@ -1926,10 +1920,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C67" s="6">
         <v>2926832</v>
@@ -1946,10 +1940,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C68" s="6">
         <v>1865592</v>
@@ -1966,10 +1960,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C69" s="6">
         <v>1263116</v>
@@ -1986,10 +1980,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C70" s="6">
         <v>508202</v>
@@ -2006,10 +2000,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C71" s="6">
         <v>97553</v>
@@ -2026,10 +2020,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C72" s="6">
         <v>102587277</v>
@@ -2046,10 +2040,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C73" s="6">
         <v>4274832</v>
@@ -2066,10 +2060,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C74" s="6">
         <v>702647</v>
@@ -2086,10 +2080,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C75" s="6">
         <v>14841266</v>
@@ -2106,10 +2100,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C76" s="6">
         <v>6767133</v>
@@ -2126,10 +2120,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C77" s="6">
         <v>4883250</v>
@@ -2146,10 +2140,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C78" s="6">
         <v>18287106</v>
@@ -2166,10 +2160,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C79" s="6">
         <v>3708106</v>
@@ -2186,10 +2180,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C80" s="6">
         <v>45014539</v>
@@ -2206,10 +2200,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C81" s="6">
         <v>5139707</v>
@@ -2226,10 +2220,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C82" s="9">
         <v>342838029</v>
@@ -2246,10 +2240,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C83" s="6">
         <v>297755</v>
@@ -2266,10 +2260,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C84" s="6">
         <v>3286724</v>
@@ -2286,10 +2280,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C85" s="6">
         <v>27554057</v>
@@ -2306,10 +2300,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C86" s="6">
         <v>2280331</v>
@@ -2326,10 +2320,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C87" s="6">
         <v>30184955</v>
@@ -2346,10 +2340,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C88" s="6">
         <v>780716</v>
@@ -2366,10 +2360,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C89" s="6">
         <v>6147625</v>
@@ -2386,10 +2380,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C90" s="6">
         <v>8237375</v>
@@ -2406,10 +2400,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C91" s="6">
         <v>25601213</v>
@@ -2426,10 +2420,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C92" s="6">
         <v>1867978</v>
@@ -2446,10 +2440,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C93" s="6">
         <v>23854497</v>
@@ -2466,10 +2460,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C94" s="6">
         <v>3716390</v>
@@ -2486,10 +2480,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C95" s="6">
         <v>1721572</v>
@@ -2506,10 +2500,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C96" s="6">
         <v>1283768</v>
@@ -2526,10 +2520,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C97" s="6">
         <v>529278</v>
@@ -2546,10 +2540,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C98" s="6">
         <v>875354</v>
@@ -2566,10 +2560,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C99" s="6">
         <v>105786575</v>
@@ -2586,10 +2580,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C100" s="6">
         <v>4529494</v>
@@ -2606,10 +2600,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C101" s="6">
         <v>707485</v>
@@ -2626,10 +2620,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C102" s="6">
         <v>15822452</v>
@@ -2646,10 +2640,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C103" s="6">
         <v>6428367</v>
@@ -2666,10 +2660,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C104" s="6">
         <v>4976757</v>
@@ -2686,10 +2680,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C105" s="6">
         <v>19276268</v>
@@ -2706,10 +2700,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C106" s="6">
         <v>3646545</v>
@@ -2726,10 +2720,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C107" s="6">
         <v>45639403</v>
@@ -2746,10 +2740,10 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C108" s="6">
         <v>5249866</v>
@@ -2766,10 +2760,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C109" s="9">
         <v>350282800</v>
@@ -2786,10 +2780,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" s="6">
         <v>244736</v>
@@ -2806,10 +2800,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C111" s="6">
         <v>2694153</v>
@@ -2826,10 +2820,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C112" s="6">
         <v>23664594</v>
@@ -2846,10 +2840,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C113" s="6">
         <v>2075842</v>
@@ -2866,10 +2860,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C114" s="6">
         <v>26119221</v>
@@ -2886,10 +2880,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C115" s="6">
         <v>724241</v>
@@ -2906,10 +2900,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C116" s="6">
         <v>6010909</v>
@@ -2926,10 +2920,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C117" s="6">
         <v>7275749</v>
@@ -2946,10 +2940,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C118" s="6">
         <v>21978380</v>
@@ -2966,10 +2960,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C119" s="6">
         <v>1666573</v>
@@ -2986,10 +2980,10 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C120" s="6">
         <v>22073990</v>
@@ -3006,10 +3000,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C121" s="6">
         <v>3228252</v>
@@ -3026,10 +3020,10 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C122" s="6">
         <v>1508495</v>
@@ -3046,10 +3040,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C123" s="6">
         <v>1122793</v>
@@ -3066,10 +3060,10 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C124" s="6">
         <v>433487</v>
@@ -3086,10 +3080,10 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C125" s="6">
         <v>876545</v>
@@ -3106,10 +3100,10 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C126" s="6">
         <v>92178230</v>
@@ -3126,10 +3120,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C127" s="6">
         <v>3937020</v>
@@ -3146,10 +3140,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C128" s="6">
         <v>561837</v>
@@ -3166,10 +3160,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C129" s="6">
         <v>13583809</v>
@@ -3186,10 +3180,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C130" s="6">
         <v>5588476</v>
@@ -3206,10 +3200,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C131" s="6">
         <v>4220296</v>
@@ -3226,10 +3220,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C132" s="6">
         <v>16909256</v>
@@ -3246,10 +3240,10 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C133" s="6">
         <v>2896590</v>
@@ -3266,10 +3260,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C134" s="6">
         <v>37846487</v>
@@ -3286,10 +3280,10 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C135" s="6">
         <v>4672651</v>
@@ -3306,10 +3300,10 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C136" s="9">
         <v>304092612</v>
@@ -3326,10 +3320,10 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C137" s="6">
         <v>256372</v>
@@ -3346,10 +3340,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C138" s="6">
         <v>2967019</v>
@@ -3366,10 +3360,10 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C139" s="6">
         <v>25277186</v>
@@ -3386,10 +3380,10 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C140" s="6">
         <v>2271587</v>
@@ -3406,10 +3400,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C141" s="6">
         <v>28362091</v>
@@ -3426,10 +3420,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C142" s="6">
         <v>757602</v>
@@ -3446,10 +3440,10 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C143" s="6">
         <v>5830970</v>
@@ -3466,10 +3460,10 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C144" s="6">
         <v>7532390</v>
@@ -3486,10 +3480,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C145" s="6">
         <v>24466595</v>
@@ -3506,10 +3500,10 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C146" s="6">
         <v>1968359</v>
@@ -3526,10 +3520,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C147" s="6">
         <v>22802996</v>
@@ -3546,10 +3540,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C148" s="6">
         <v>6401376</v>
@@ -3566,10 +3560,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C149" s="6">
         <v>1560950</v>
@@ -3586,10 +3580,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C150" s="6">
         <v>1117057</v>
@@ -3606,10 +3600,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C151" s="6">
         <v>43955</v>
@@ -3626,10 +3620,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C152" s="6">
         <v>776006</v>
@@ -3646,10 +3640,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C153" s="6">
         <v>98179763</v>
@@ -3666,10 +3660,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C154" s="6">
         <v>4162390</v>
@@ -3686,10 +3680,10 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C155" s="6">
         <v>620858</v>
@@ -3706,10 +3700,10 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C156" s="6">
         <v>15406911</v>
@@ -3726,10 +3720,10 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C157" s="6">
         <v>6286051</v>
@@ -3746,10 +3740,10 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C158" s="6">
         <v>4654473</v>
@@ -3766,10 +3760,10 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C159" s="6">
         <v>18478780</v>
@@ -3786,10 +3780,10 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C160" s="6">
         <v>2996625</v>
@@ -3806,10 +3800,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C161" s="6">
         <v>40160065</v>
@@ -3826,10 +3820,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C162" s="6">
         <v>5747341</v>
@@ -3846,10 +3840,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C163" s="9">
         <v>329481363</v>
